--- a/Wetlands/SamplingNotes/SamplingData_Wetland-07_2022-10-15.xlsx
+++ b/Wetlands/SamplingNotes/SamplingData_Wetland-07_2022-10-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Wetlands/SamplingNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCEE8377-6CC5-0C48-BAEB-B80E24080ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC76F5D-80B2-AB49-AD02-ADF1CC03B576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="2900" windowWidth="27640" windowHeight="16940" xr2:uid="{849C4510-753D-8A4A-96BF-125E2BFDB151}"/>
+    <workbookView xWindow="8200" yWindow="3860" windowWidth="27640" windowHeight="16940" xr2:uid="{849C4510-753D-8A4A-96BF-125E2BFDB151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Wetland number</t>
   </si>
@@ -53,18 +53,6 @@
     <t>CO2 flux</t>
   </si>
   <si>
-    <t>11:00-11:27</t>
-  </si>
-  <si>
-    <t>Side</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>11:31-11:51</t>
-  </si>
-  <si>
     <t>Methane</t>
   </si>
   <si>
@@ -75,6 +63,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>middle</t>
   </si>
 </sst>
 </file>
@@ -437,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CDE293-4E8D-F04D-940E-1BE65B07F318}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -477,32 +468,24 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.51458333333333328</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -510,21 +493,21 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D9" s="3">
-        <v>0.48055555555555557</v>
+        <v>0.52222222222222225</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3">
-        <v>0.48958333333333331</v>
+        <v>0.52430555555555558</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,10 +515,21 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="D11" s="3">
-        <v>0.48680555555555555</v>
+        <v>0.53194444444444444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>179</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.53263888888888888</v>
       </c>
     </row>
   </sheetData>
